--- a/25-26/proforma invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma invoice/Proforma Invoice (Format ) final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BK ROCKSTONE PVT LTD\25-26\proforma invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BK ROCKSTONE PVT LTD\BK Rockstone Invoices\25-26\proforma invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A782C-8721-4397-9576-D7253BB076B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">DESCRIPTION OF GOODS </t>
   </si>
@@ -108,9 +107,6 @@
     <t xml:space="preserve"> PROFORMA INVOICE NO.</t>
   </si>
   <si>
-    <t>1 X FCL</t>
-  </si>
-  <si>
     <t>QUANTITY(sqm)</t>
   </si>
   <si>
@@ -123,9 +119,6 @@
     <t>AANCB5070H</t>
   </si>
   <si>
-    <t>WOODEN CRATE</t>
-  </si>
-  <si>
     <t>Contact :  +91-9313035076, +91-926580144</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Add: 90/3, Nr. Brambhani Ice Factory, Nr. Radhika  Society, Jashodanagar Canal Road, Ctm Char Rasta, Ahmedabad-380026.</t>
-  </si>
-  <si>
-    <t>30% Advance and Remaining Against BL</t>
   </si>
   <si>
     <t>CHENNAI</t>
@@ -149,15 +139,6 @@
  3. After receiving advance, preparation time approx 2-3 weeks </t>
   </si>
   <si>
-    <t>ANY PORT OF COLOMBIA</t>
-  </si>
-  <si>
-    <t>COLOMBIA</t>
-  </si>
-  <si>
-    <t>FOB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ACCOUNT NAME    </t>
   </si>
   <si>
@@ -170,9 +151,6 @@
     <t xml:space="preserve"> SWIFT CODE            </t>
   </si>
   <si>
-    <t>: BK ROCKSTONE PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t>: BANK OF BARODA</t>
   </si>
   <si>
@@ -188,28 +166,45 @@
     <t xml:space="preserve"> BRANCH NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">Nelson Marmol
-Becerra Alarcon Nelson Enrique
-Add: CR 11 #10-85 Sur, Barrio Areneras, Sogamoso – Boyacá. NIT: 741837112
-Email: nelsonbecerra.marmol@hotmail.com
-Contact : +57 311 5340858 </t>
-  </si>
-  <si>
-    <t>Absolute Negro Granite Slabs
-Size: 200-330 cm Length X 80-100 cm Height, Thickness : 18 mm+</t>
-  </si>
-  <si>
-    <t>Galaxy black Granite Slabs
-Size: 200-330 cm Length X 80-100 cm Height, Thickness : 18 mm+</t>
-  </si>
-  <si>
-    <t>PI0309/25-26</t>
+    <t>: BK ROCKSTONE PVT LTD</t>
+  </si>
+  <si>
+    <t>1 X FCL</t>
+  </si>
+  <si>
+    <t>WOODEN CRATE PACKING</t>
+  </si>
+  <si>
+    <t>MERSIN</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>CNF</t>
+  </si>
+  <si>
+    <t>Star Galaxy
+Size: 200-350 cm Length X 60-100 cm Height, 
+Thickness : 18mm+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Against BL </t>
+  </si>
+  <si>
+    <t>Ünsal granit mermer
+ Add: Yuva Mah, 3708. Sk. No:8, 06165 Yenimahalle/Ankara, Türkiye 
+Contact : +90 545 337 06 19
+info@ankaramermerdeposu.com</t>
+  </si>
+  <si>
+    <t>PI2011/25-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
@@ -556,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,6 +595,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,156 +760,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -768,17 +775,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,13 +808,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>175684</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>268114</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -818,7 +822,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4454E25F-22D5-459D-A441-288FFAF1E213}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4454E25F-22D5-459D-A441-288FFAF1E213}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,23 +933,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -981,23 +968,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1173,11 +1143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,25 +1157,25 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="1.85546875" customWidth="1"/>
     <col min="7" max="7" width="1.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
@@ -1220,144 +1190,144 @@
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="89"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="90">
-        <v>45903</v>
-      </c>
-      <c r="K4" s="89"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="34">
+        <v>45981</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="32" t="s">
+      <c r="B5" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="90">
-        <v>45923</v>
-      </c>
-      <c r="K5" s="89"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="34">
+        <v>45996</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="32" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="89"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="89"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="89"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="89"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="89"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -1366,106 +1336,106 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="89"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="63"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="89"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="89"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="64"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="72"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="76"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
@@ -1482,7 +1452,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>4</v>
@@ -1491,268 +1461,267 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
         <v>68022390</v>
       </c>
       <c r="I19" s="17">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="J19" s="18">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="K19" s="19">
         <f>I19*J19</f>
-        <v>9150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17">
-        <v>68022390</v>
-      </c>
-      <c r="I20" s="17">
-        <v>150</v>
-      </c>
-      <c r="J20" s="18">
-        <v>23.5</v>
-      </c>
-      <c r="K20" s="19">
-        <f>I20*J20</f>
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="53">
-        <f>SUM(K19:K21)</f>
-        <v>12675</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="61"/>
+      <c r="K21" s="52">
+        <f>SUM(K19:K20)</f>
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="54"/>
-    </row>
-    <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="80"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
+    </row>
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-    </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="56" t="s">
+      <c r="I25" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="55">
-        <f>K22</f>
-        <v>12675</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="54"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="47" t="s">
+      <c r="J25" s="56"/>
+      <c r="K25" s="54">
+        <f>K21</f>
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="53"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-    </row>
-    <row r="29" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="43"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="I24:K25"/>
+  <mergeCells count="42">
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B12:E17"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="G29:K33"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:J22"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
@@ -1768,38 +1737,13 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B30:F34"/>
-    <mergeCell ref="G30:K34"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B12:E17"/>
-    <mergeCell ref="B21:K21"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="89" orientation="portrait" r:id="rId2"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>
@@ -1808,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1820,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/25-26/proforma invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma invoice/Proforma Invoice (Format ) final.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">DESCRIPTION OF GOODS </t>
   </si>
@@ -175,30 +175,38 @@
     <t>WOODEN CRATE PACKING</t>
   </si>
   <si>
-    <t>MERSIN</t>
-  </si>
-  <si>
-    <t>TURKEY</t>
-  </si>
-  <si>
-    <t>CNF</t>
-  </si>
-  <si>
-    <t>Star Galaxy
-Size: 200-350 cm Length X 60-100 cm Height, 
-Thickness : 18mm+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% Against BL </t>
-  </si>
-  <si>
-    <t>Ünsal granit mermer
- Add: Yuva Mah, 3708. Sk. No:8, 06165 Yenimahalle/Ankara, Türkiye 
-Contact : +90 545 337 06 19
-info@ankaramermerdeposu.com</t>
-  </si>
-  <si>
-    <t>PI2011/25-26</t>
+    <t>FOB</t>
+  </si>
+  <si>
+    <t>30% Advance and 
+Remaining Against BL</t>
+  </si>
+  <si>
+    <t>PI1512/25-26</t>
+  </si>
+  <si>
+    <t>Nelson Marmol
+Becerra Alarcon Nelson Enrique
+Add: CR 11 #10-85 Sur, Barrio Areneras, Sogamoso – 
+Boyacá. NIT: 741837112
+Email: nelsonbecerra.marmol@hotmail.com
+Contact : +57 311 5340858</t>
+  </si>
+  <si>
+    <t>Absolute Negro Granite Slabs
+Size: 240-330 cm Length X 60-100 cm Height, 
+Thickness : 18 mm+</t>
+  </si>
+  <si>
+    <t>Galaxy black Granite Slabs
+Size: 240-330 cm Length X 60-100 cm Height, 
+Thickness : 18 mm+</t>
+  </si>
+  <si>
+    <t>ANY PORT OF COLOMBIA</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
   </si>
 </sst>
 </file>
@@ -595,6 +603,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,185 +789,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,13 +816,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>175684</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>268114</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -822,7 +830,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4454E25F-22D5-459D-A441-288FFAF1E213}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4454E25F-22D5-459D-A441-288FFAF1E213}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K33"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E17"/>
+      <selection activeCell="B1" sqref="B1:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,18 +1172,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
@@ -1190,22 +1198,22 @@
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="31"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="92"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
@@ -1214,50 +1222,50 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="34">
-        <v>45981</v>
-      </c>
-      <c r="K4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="93">
+        <v>46006</v>
+      </c>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="37" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="34">
-        <v>45996</v>
-      </c>
-      <c r="K5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="93">
+        <v>46021</v>
+      </c>
+      <c r="K5" s="92"/>
     </row>
     <row r="6" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="62" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="63"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
@@ -1266,16 +1274,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="30" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="92"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
@@ -1284,16 +1292,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="30" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
@@ -1302,32 +1310,32 @@
       <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="30" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="31"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="31"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="92"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -1336,106 +1344,106 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="30" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="92"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="92"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="57"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="92"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="57"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="57"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="63"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="71"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="75"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
@@ -1461,267 +1469,266 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="C19" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
         <v>68022390</v>
       </c>
       <c r="I19" s="17">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="J19" s="18">
         <v>29</v>
       </c>
       <c r="K19" s="19">
         <f>I19*J19</f>
-        <v>12470</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="59" t="s">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <v>2</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17">
+        <v>68022390</v>
+      </c>
+      <c r="I20" s="17">
+        <v>150</v>
+      </c>
+      <c r="J20" s="18">
+        <v>24</v>
+      </c>
+      <c r="K20" s="19">
+        <f>I20*J20</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="60" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="52">
-        <f>SUM(K19:K20)</f>
-        <v>12470</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+      <c r="J22" s="89"/>
+      <c r="K22" s="80">
+        <f>SUM(K19:K21)</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="53"/>
-    </row>
-    <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="81"/>
+    </row>
+    <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="61"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="54">
-        <f>K21</f>
-        <v>12470</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
+      <c r="J26" s="84"/>
+      <c r="K26" s="82">
+        <f>K22</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="53"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="81"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="48"/>
-    </row>
-    <row r="28" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="49" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="76"/>
+    </row>
+    <row r="29" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="38" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="43"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="57"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B12:E17"/>
-    <mergeCell ref="I23:K24"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="G29:K33"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:J22"/>
+  <mergeCells count="43">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
@@ -1738,6 +1745,33 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B30:F34"/>
+    <mergeCell ref="G30:K34"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B12:E17"/>
+    <mergeCell ref="I24:K25"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com"/>
